--- a/BlackjackSummary.xlsx
+++ b/BlackjackSummary.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quincyschurr/Documents/SMUGrad/ComputationalStats/Blackjack/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shale_000\Documents\SMU\Fall2017\STAT 6324\blackjack\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9960" yWindow="460" windowWidth="17580" windowHeight="11260" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="9960" yWindow="465" windowWidth="17580" windowHeight="11265" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="New" sheetId="3" r:id="rId2"/>
     <sheet name="CountingCards" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -109,8 +109,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -125,6 +125,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,9 +153,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -159,6 +168,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -426,23 +438,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,7 +480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -498,7 +510,7 @@
         <v>0.22070585191661563</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -528,7 +540,7 @@
         <v>0.38123494444060979</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -558,7 +570,7 @@
         <v>0.28519023155255263</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -588,7 +600,7 @@
         <v>0.34548234233668967</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -618,7 +630,7 @@
         <v>0.22441477220278105</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -648,7 +660,7 @@
         <v>0.34841014519620234</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -678,7 +690,7 @@
         <v>0.266163443158073</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -708,7 +720,7 @@
         <v>0.35360077815969942</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -738,7 +750,7 @@
         <v>0.27212808061153837</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -768,7 +780,7 @@
         <v>0.32169859757580066</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -798,7 +810,7 @@
         <v>0.22007596695952356</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -828,7 +840,7 @@
         <v>0.331802128408061</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -858,7 +870,7 @@
         <v>0.25773254846899135</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -888,7 +900,7 @@
         <v>0.33637494715385113</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -918,7 +930,7 @@
         <v>0.26369504901109375</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -948,7 +960,7 @@
         <v>0.30858040972762635</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -978,7 +990,7 @@
         <v>0.22041429514827818</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1014,23 +1026,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1056,7 +1068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1086,7 +1098,7 @@
         <v>-0.16298996928272388</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1116,16 +1128,37 @@
         <v>-2.6546489290269263E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>441396</v>
+      </c>
+      <c r="C4">
+        <v>1075311</v>
+      </c>
+      <c r="D4">
+        <v>322764</v>
+      </c>
+      <c r="E4">
+        <v>628549</v>
+      </c>
+      <c r="F4">
+        <v>1495697</v>
+      </c>
+      <c r="G4">
+        <v>3963717</v>
+      </c>
+      <c r="H4">
+        <v>-386841</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.7595514513271253E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1155,7 +1188,7 @@
         <v>-5.3977074859419022E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1185,16 +1218,37 @@
         <v>-0.13712810179057658</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>294692</v>
+      </c>
+      <c r="C7">
+        <v>1378816</v>
+      </c>
+      <c r="D7">
+        <v>378772</v>
+      </c>
+      <c r="E7">
+        <v>1223526</v>
+      </c>
+      <c r="F7">
+        <v>839238</v>
+      </c>
+      <c r="G7">
+        <v>4115044</v>
+      </c>
+      <c r="H7">
+        <v>-241910</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.8786734722642092E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1224,7 +1278,7 @@
         <v>-7.775145503944747E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1254,16 +1308,37 @@
         <v>-8.6908803532360947E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>432257</v>
+      </c>
+      <c r="C10">
+        <v>1109172</v>
+      </c>
+      <c r="D10">
+        <v>323615</v>
+      </c>
+      <c r="E10">
+        <v>727075</v>
+      </c>
+      <c r="F10">
+        <v>1401276</v>
+      </c>
+      <c r="G10">
+        <v>4347832</v>
+      </c>
+      <c r="H10">
+        <v>-300992</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.9228065849830447E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1293,7 +1368,7 @@
         <v>-3.1941099584088591E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1323,16 +1398,37 @@
         <v>-0.10311484630705113</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>310820</v>
+      </c>
+      <c r="C13">
+        <v>1386431</v>
+      </c>
+      <c r="D13">
+        <v>377962</v>
+      </c>
+      <c r="E13">
+        <v>1280640</v>
+      </c>
+      <c r="F13">
+        <v>769485</v>
+      </c>
+      <c r="G13">
+        <v>4614802</v>
+      </c>
+      <c r="H13">
+        <v>-92601</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.0066083008545111E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1362,7 +1458,7 @@
         <v>-5.8432498664812579E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1392,16 +1488,37 @@
         <v>1.7427070726471709E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>424913</v>
+      </c>
+      <c r="C16">
+        <v>1047777</v>
+      </c>
+      <c r="D16">
+        <v>306119</v>
+      </c>
+      <c r="E16">
+        <v>682303</v>
+      </c>
+      <c r="F16">
+        <v>1294793</v>
+      </c>
+      <c r="G16">
+        <v>4537585</v>
+      </c>
+      <c r="H16">
+        <v>-230713.5</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.0844997944942079E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1431,7 +1548,7 @@
         <v>-1.9567539843938973E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1461,13 +1578,34 @@
         <v>-8.0588662971054922E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B19">
+        <v>309322</v>
+      </c>
+      <c r="C19">
+        <v>1309588</v>
+      </c>
+      <c r="D19">
+        <v>354912</v>
+      </c>
+      <c r="E19">
+        <v>1199986</v>
+      </c>
+      <c r="F19">
+        <v>707957</v>
+      </c>
+      <c r="G19">
+        <v>4811478</v>
+      </c>
+      <c r="H19">
+        <v>-38496.5</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.0009718427476971E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1476,23 +1614,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:H18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1518,7 +1656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1548,7 +1686,7 @@
         <v>-0.17542062834245772</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1578,16 +1716,37 @@
         <v>-7.9934066802073475E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>441645</v>
+      </c>
+      <c r="C4">
+        <v>1075278</v>
+      </c>
+      <c r="D4">
+        <v>324685</v>
+      </c>
+      <c r="E4">
+        <v>627777</v>
+      </c>
+      <c r="F4">
+        <v>1495403</v>
+      </c>
+      <c r="G4">
+        <v>11551063</v>
+      </c>
+      <c r="H4">
+        <v>-1167701</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.10109034986650146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1617,7 +1776,7 @@
         <v>-0.15479708853965785</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1647,16 +1806,37 @@
         <v>-0.40197187287013525</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>294820</v>
+      </c>
+      <c r="C7">
+        <v>1379913</v>
+      </c>
+      <c r="D7">
+        <v>378697</v>
+      </c>
+      <c r="E7">
+        <v>1221746</v>
+      </c>
+      <c r="F7">
+        <v>839769</v>
+      </c>
+      <c r="G7">
+        <v>11982777</v>
+      </c>
+      <c r="H7">
+        <v>-772485.5</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.4466316948066385E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1686,7 +1866,7 @@
         <v>-9.1336018986549541E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1716,16 +1896,37 @@
         <v>-3.0826317671341971E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>434407</v>
+      </c>
+      <c r="C10">
+        <v>1108551</v>
+      </c>
+      <c r="D10">
+        <v>322644</v>
+      </c>
+      <c r="E10">
+        <v>728384</v>
+      </c>
+      <c r="F10">
+        <v>1400449</v>
+      </c>
+      <c r="G10">
+        <v>12729436</v>
+      </c>
+      <c r="H10">
+        <v>-933535</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.3336713425480912E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1755,7 +1956,7 @@
         <v>-3.0675713163587884E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1785,16 +1986,37 @@
         <v>-0.27151776293024726</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>310346</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1384969</v>
+      </c>
+      <c r="D13" s="2">
+        <v>377489</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1283627</v>
+      </c>
+      <c r="F13" s="2">
+        <v>769279</v>
+      </c>
+      <c r="G13" s="2">
+        <v>13444097</v>
+      </c>
+      <c r="H13" s="2">
+        <v>-393554</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.9273368081173468E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1824,7 +2046,7 @@
         <v>-7.0307017193334487E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1854,16 +2076,37 @@
         <v>-4.7232444424205296E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <v>424401</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1046949</v>
+      </c>
+      <c r="D16" s="2">
+        <v>306030</v>
+      </c>
+      <c r="E16" s="2">
+        <v>683485</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1294002</v>
+      </c>
+      <c r="G16" s="2">
+        <v>12489354</v>
+      </c>
+      <c r="H16" s="2">
+        <v>-616516</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.9363321753871335E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1893,7 +2136,7 @@
         <v>-4.8611515136769881E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1923,16 +2166,38 @@
         <v>-0.18825728166388897</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B19" s="2">
+        <v>309607</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1306766</v>
+      </c>
+      <c r="D19" s="2">
+        <v>356324</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1201851</v>
+      </c>
+      <c r="F19" s="2">
+        <v>707590</v>
+      </c>
+      <c r="G19" s="2">
+        <v>14309680</v>
+      </c>
+      <c r="H19" s="2">
+        <v>-255535</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.7857492270966228E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>